--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CREDIT WEEK 30-11-25 TO 6-11-25.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CREDIT WEEK 30-11-25 TO 6-11-25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>SNO</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>TN74AU8692</t>
+  </si>
+  <si>
+    <t>asirvatham</t>
+  </si>
+  <si>
+    <t>POOTHAPANDI</t>
+  </si>
+  <si>
+    <t>TN74AL9942</t>
+  </si>
+  <si>
+    <t>T. MURUGAN</t>
+  </si>
+  <si>
+    <t>THOOPUR</t>
+  </si>
+  <si>
+    <t>TN76D9799</t>
   </si>
 </sst>
 </file>
@@ -122,11 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,6 +161,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,233 +464,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="45">
-      <c r="A3" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45789</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>29.08</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>300</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>G4*H4</f>
         <v>8724</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>ROUND(I4+J4,-1)</f>
         <v>8720</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45789</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>25.17</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>300</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>G5*H5</f>
         <v>7551.0000000000009</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>ROUND(I5+J5,-1)</f>
         <v>7550</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45789</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>4.88</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>300</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>G6*H6</f>
         <v>1464</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>ROUND(I6+J6,-1)</f>
         <v>1460</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45789</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6.86</v>
+      </c>
+      <c r="H7" s="4">
+        <v>300</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I6:I8" si="0">G7*H7</f>
+        <v>2058</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>ROUND(I7+J7,-1)</f>
+        <v>2060</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="8">
-        <f>SUM(G4:G6)</f>
-        <v>59.13</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <f>SUM(J4)</f>
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45820</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.46</v>
+      </c>
+      <c r="H8" s="4">
+        <v>300</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>1638</v>
+      </c>
+      <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <f>SUM(K4:K6)</f>
-        <v>17730</v>
+      <c r="K8" s="4">
+        <f>ROUND(I8+J8,-1)</f>
+        <v>1640</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -687,12 +743,51 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7">
+        <f>SUM(G4:G8)</f>
+        <v>71.45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <f>SUM(J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f>SUM(K4:K8)</f>
+        <v>21430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="6" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CREDIT WEEK 30-11-25 TO 6-11-25.xlsx
+++ b/SALES STATEMENTS/WEEK 30-11-25 TO 06-12-25/CREDIT WEEK 30-11-25 TO 6-11-25.xlsx
@@ -467,12 +467,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
@@ -566,18 +566,18 @@
         <v>29.08</v>
       </c>
       <c r="H4" s="4">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I4" s="4">
         <f>G4*H4</f>
-        <v>8724</v>
+        <v>6397.5999999999995</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4">
         <f>ROUND(I4+J4,-1)</f>
-        <v>8720</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -603,18 +603,18 @@
         <v>25.17</v>
       </c>
       <c r="H5" s="4">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I5" s="4">
         <f>G5*H5</f>
-        <v>7551.0000000000009</v>
+        <v>5537.4000000000005</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
       </c>
       <c r="K5" s="4">
         <f>ROUND(I5+J5,-1)</f>
-        <v>7550</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +680,7 @@
         <v>300</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" ref="I6:I8" si="0">G7*H7</f>
+        <f t="shared" ref="I7:I8" si="0">G7*H7</f>
         <v>2058</v>
       </c>
       <c r="J7" s="4">
@@ -764,7 +764,7 @@
       </c>
       <c r="K10" s="7">
         <f>SUM(K4:K8)</f>
-        <v>21430</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="6" customHeight="1">
